--- a/Paper files/SI files/Series 2 Experimental.xlsx
+++ b/Paper files/SI files/Series 2 Experimental.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danam\OneDrive\Documents\GitHub\Series-2-Diarylimidazoles\Paper files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8555EB5D-9F21-49E9-AD41-3297C7F28B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23D0555D-923D-436B-97C9-D36204C19406}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="261">
   <si>
     <t>OSA ID</t>
   </si>
@@ -822,8 +816,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,9 +876,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -893,6 +884,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,7 +948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1006,7 +1000,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1200,36 +1194,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6A4B2B-C15A-4992-B932-6B0DB1568341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120:G127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="21.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3"/>
+    <col min="5" max="5" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1248,11 +1242,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1268,11 +1262,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1288,11 +1282,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1308,11 +1302,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1328,11 +1322,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1348,11 +1342,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1368,11 +1362,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1388,11 +1382,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1408,11 +1402,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1428,11 +1422,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1448,11 +1442,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1468,11 +1462,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1488,11 +1482,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1508,11 +1502,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1528,11 +1522,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1548,11 +1542,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1568,11 +1562,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1588,11 +1582,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1608,41 +1602,41 @@
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>155</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1659,11 +1653,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1682,11 +1676,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1705,11 +1699,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>191</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1726,11 +1720,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1749,11 +1743,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>202</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1772,11 +1766,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>209</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1795,11 +1789,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>210</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1818,11 +1812,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1841,11 +1835,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>212</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1864,11 +1858,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>213</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1887,11 +1881,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>214</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -1910,11 +1904,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>232</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -1933,11 +1927,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>233</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -1952,11 +1946,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>234</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1975,11 +1969,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>242</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1998,728 +1992,848 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
         <v>250</v>
       </c>
+      <c r="C127" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G133">
+  <sortState ref="A2:G133">
     <sortCondition ref="B1:B133"/>
   </sortState>
   <mergeCells count="2">
